--- a/Data/sample_portfolio2_views.xlsx
+++ b/Data/sample_portfolio2_views.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapam\Documents\Git\entropy-poolin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9959CBB5-CA23-444C-A798-C80B858E258A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B465E55-007B-48C9-9E95-B8E3EBF760B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12300" xr2:uid="{947BAB4B-B7D2-4750-A7BC-B652DF564494}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9060" firstSheet="4" activeTab="7" xr2:uid="{947BAB4B-B7D2-4750-A7BC-B652DF564494}"/>
   </bookViews>
   <sheets>
     <sheet name="view 1 (rates up)" sheetId="1" r:id="rId1"/>
@@ -1601,10 +1601,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D192AB-C94F-4991-A9BC-7033E27831F6}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C25" sqref="C25"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1663,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="10">
-        <v>0.25</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_Germany 10-Year Government Bond Yield (p.a.) &gt; 0,25 </v>
+        <v xml:space="preserve">μ_Germany 10-Year Government Bond Yield (p.a.) &gt; 0,025 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C25" sqref="C25"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="10">
-        <v>-0.25</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_EUR Government Bonds (p.a.) &lt; -0,25 </v>
+        <v xml:space="preserve">μ_EUR Government Bonds (p.a.) &lt; -0,025 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1969,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="10">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_Global Equities (p.a.) &gt; 0,1 </v>
+        <v xml:space="preserve">μ_Global Equities (p.a.) &gt; 0,01 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2109,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="10">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_Global Equities (p.a.) &lt; -0,1 </v>
+        <v xml:space="preserve">μ_Global Equities (p.a.) &lt; -0,01 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2249,7 +2249,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_Eurozone Core Inflation (p.a.) &gt; 0,01 </v>
+        <v xml:space="preserve">μ_Eurozone Core Inflation (p.a.) &gt; 0,001 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2389,7 +2389,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="10">
-        <v>-0.01</v>
+        <v>-1E-3</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_Eurozone Core Inflation (p.a.) &lt; -0,01 </v>
+        <v xml:space="preserve">μ_Eurozone Core Inflation (p.a.) &lt; -0,001 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2529,7 +2529,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="10">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_iVol US Equities (p.a.) &gt; 0,1 </v>
+        <v xml:space="preserve">μ_iVol US Equities (p.a.) &gt; 0,01 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2609,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6705A1-063F-4EAE-B086-A9A750C92524}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2669,7 +2669,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="10">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_iVol US Equities (p.a.) &lt; -0,1 </v>
+        <v xml:space="preserve">μ_iVol US Equities (p.a.) &lt; -0,01 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">

--- a/Data/sample_portfolio2_views.xlsx
+++ b/Data/sample_portfolio2_views.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapam\Documents\Git\entropy-poolin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B465E55-007B-48C9-9E95-B8E3EBF760B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86462ED1-E369-436C-A832-217C427E72A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9060" firstSheet="4" activeTab="7" xr2:uid="{947BAB4B-B7D2-4750-A7BC-B652DF564494}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="23040" windowHeight="12300" firstSheet="4" activeTab="8" xr2:uid="{947BAB4B-B7D2-4750-A7BC-B652DF564494}"/>
   </bookViews>
   <sheets>
     <sheet name="view 1 (rates up)" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="view 6 (inflation dn)" sheetId="8" r:id="rId6"/>
     <sheet name="view 7 (vix up)" sheetId="11" r:id="rId7"/>
     <sheet name="view 8 (vix dn)" sheetId="12" r:id="rId8"/>
-    <sheet name="input validation" sheetId="2" state="hidden" r:id="rId9"/>
+    <sheet name="view 9" sheetId="13" r:id="rId9"/>
+    <sheet name="input validation" sheetId="2" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="factor">'input validation'!$B$2:$B$37</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="54">
   <si>
     <t>European Equities</t>
   </si>
@@ -223,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +246,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -268,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -297,12 +304,233 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
     <cellStyle name="Prosenttia" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="117">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1127,18 +1355,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E8D6B3D-41D7-44A8-A9B4-14D70EA53777}" name="Table1" displayName="Table1" ref="A1:I2" totalsRowShown="0" headerRowDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E8D6B3D-41D7-44A8-A9B4-14D70EA53777}" name="Table1" displayName="Table1" ref="A1:I2" totalsRowShown="0" headerRowDxfId="107">
   <autoFilter ref="A1:I2" xr:uid="{0E8D6B3D-41D7-44A8-A9B4-14D70EA53777}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FCA19E57-E117-4192-A175-C5A846A4971B}" name="* View on"/>
     <tableColumn id="2" xr3:uid="{7E3FD807-66CB-4DA9-9133-3EC201CA09A8}" name="* Risk factor 1"/>
     <tableColumn id="3" xr3:uid="{2F98A85F-03A4-450D-8AF2-3B362213618B}" name="Risk factor 2 _x000a_(applicable for corr)"/>
-    <tableColumn id="4" xr3:uid="{4A5D765B-9D0B-4E55-9534-B8A4D4FC2C1F}" name="* Operator" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{AC255133-F992-4D98-BA26-B8BD35806503}" name="* Constant _x000a_(alpha)" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{58720F09-B85A-47FB-90E4-1704206B41AB}" name="Multiplier _x000a_(beta)" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{4A5D765B-9D0B-4E55-9534-B8A4D4FC2C1F}" name="* Operator" dataDxfId="106"/>
+    <tableColumn id="5" xr3:uid="{AC255133-F992-4D98-BA26-B8BD35806503}" name="* Constant _x000a_(alpha)" dataDxfId="105"/>
+    <tableColumn id="6" xr3:uid="{58720F09-B85A-47FB-90E4-1704206B41AB}" name="Multiplier _x000a_(beta)" dataDxfId="104"/>
     <tableColumn id="7" xr3:uid="{71DCC6EE-632C-440A-8DDD-79D249B08D41}" name="Risk factor 3"/>
     <tableColumn id="8" xr3:uid="{400671E3-F507-48B3-979B-9E6581D2ECF2}" name="Risk factor 4 _x000a_(applicable for corr)"/>
-    <tableColumn id="9" xr3:uid="{D16B2553-BDA4-4084-B6CC-37585AC8BB8F}" name="Preview" dataDxfId="80">
+    <tableColumn id="9" xr3:uid="{D16B2553-BDA4-4084-B6CC-37585AC8BB8F}" name="Preview" dataDxfId="103">
       <calculatedColumnFormula>IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</calculatedColumnFormula>
@@ -1149,18 +1377,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECAFBB61-1E9D-4249-B6A2-1287DE02EB57}" name="Table16" displayName="Table16" ref="A1:I2" totalsRowShown="0" headerRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECAFBB61-1E9D-4249-B6A2-1287DE02EB57}" name="Table16" displayName="Table16" ref="A1:I2" totalsRowShown="0" headerRowDxfId="93">
   <autoFilter ref="A1:I2" xr:uid="{0E8D6B3D-41D7-44A8-A9B4-14D70EA53777}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{73881C39-F105-4137-AAB8-7CDB9CBA2233}" name="* View on"/>
     <tableColumn id="2" xr3:uid="{E8FFFB33-D37A-4FEB-BBF3-6ED1B0DAD7A1}" name="* Risk factor 1"/>
     <tableColumn id="3" xr3:uid="{A50A1132-950A-4991-BF8E-8E27EFB0B4D1}" name="Risk factor 2 _x000a_(applicable for corr)"/>
-    <tableColumn id="4" xr3:uid="{46415B63-DD76-469E-BA52-9C034996DB2B}" name="* Operator" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{6F3EBB3C-3EF9-45A0-B389-A623E6B4027C}" name="* Constant _x000a_(alpha)" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{35B7AA74-13AD-41C0-8541-F7C3EC0119F3}" name="Multiplier _x000a_(beta)" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{46415B63-DD76-469E-BA52-9C034996DB2B}" name="* Operator" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{6F3EBB3C-3EF9-45A0-B389-A623E6B4027C}" name="* Constant _x000a_(alpha)" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{35B7AA74-13AD-41C0-8541-F7C3EC0119F3}" name="Multiplier _x000a_(beta)" dataDxfId="90"/>
     <tableColumn id="7" xr3:uid="{B27BEE8B-E765-4475-B8C3-E80844109C10}" name="Risk factor 3"/>
     <tableColumn id="8" xr3:uid="{8B729E63-0107-4AE1-98AB-7D1912D00C1F}" name="Risk factor 4 _x000a_(applicable for corr)"/>
-    <tableColumn id="9" xr3:uid="{B7E41D86-1CE6-4D36-ADF5-D877F362D72F}" name="Preview" dataDxfId="66">
+    <tableColumn id="9" xr3:uid="{B7E41D86-1CE6-4D36-ADF5-D877F362D72F}" name="Preview" dataDxfId="89">
       <calculatedColumnFormula>IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</calculatedColumnFormula>
@@ -1171,18 +1399,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EEBEBC6D-A955-486D-BA93-5D64B0AEE002}" name="Table139" displayName="Table139" ref="A1:I2" totalsRowShown="0" headerRowDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EEBEBC6D-A955-486D-BA93-5D64B0AEE002}" name="Table139" displayName="Table139" ref="A1:I2" totalsRowShown="0" headerRowDxfId="82">
   <autoFilter ref="A1:I2" xr:uid="{7B7880FB-31EA-4B93-84AD-6D7E4C44F76D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2DA40F01-1DEB-49DC-BC41-08180F94BE7C}" name="* View on"/>
     <tableColumn id="2" xr3:uid="{49B1198E-9E0D-4F50-81B0-31BBC012C5FD}" name="* Risk factor 1"/>
     <tableColumn id="3" xr3:uid="{EEC258E2-8B21-4B4D-8E3E-035B630C1ED0}" name="Risk factor 2 _x000a_(applicable for corr)"/>
-    <tableColumn id="4" xr3:uid="{82A74EF2-45C3-463A-BCD5-E258D70E92DC}" name="* Operator" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{F99D66D0-56FF-49CE-B48F-D2C851178E41}" name="* Constant _x000a_(alpha)" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{9FE96669-2D70-403D-9799-FB405358A278}" name="Multiplier _x000a_(beta)" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{82A74EF2-45C3-463A-BCD5-E258D70E92DC}" name="* Operator" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{F99D66D0-56FF-49CE-B48F-D2C851178E41}" name="* Constant _x000a_(alpha)" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{9FE96669-2D70-403D-9799-FB405358A278}" name="Multiplier _x000a_(beta)" dataDxfId="79"/>
     <tableColumn id="7" xr3:uid="{8B1DEADA-0C64-4FFD-9C18-10D44C2CE955}" name="Risk factor 3"/>
     <tableColumn id="8" xr3:uid="{F51764EC-A67B-47B4-A337-F67422979F4C}" name="Risk factor 4 _x000a_(applicable for corr)"/>
-    <tableColumn id="9" xr3:uid="{C37CAD2B-2C50-42AE-A89B-842773CD91BA}" name="Preview" dataDxfId="55">
+    <tableColumn id="9" xr3:uid="{C37CAD2B-2C50-42AE-A89B-842773CD91BA}" name="Preview" dataDxfId="78">
       <calculatedColumnFormula>IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</calculatedColumnFormula>
@@ -1193,18 +1421,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2DDEFAA0-C405-4D1A-8717-AADA872A56D3}" name="Table13910" displayName="Table13910" ref="A1:I2" totalsRowShown="0" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2DDEFAA0-C405-4D1A-8717-AADA872A56D3}" name="Table13910" displayName="Table13910" ref="A1:I2" totalsRowShown="0" headerRowDxfId="71">
   <autoFilter ref="A1:I2" xr:uid="{7B7880FB-31EA-4B93-84AD-6D7E4C44F76D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A50F9893-AAB8-4436-9846-E292C0FB0960}" name="* View on"/>
     <tableColumn id="2" xr3:uid="{C31CCDB8-C944-446A-8EFB-01B1A308948A}" name="* Risk factor 1"/>
     <tableColumn id="3" xr3:uid="{4D778E42-E0C4-4513-91D7-B3412333B77D}" name="Risk factor 2 _x000a_(applicable for corr)"/>
-    <tableColumn id="4" xr3:uid="{50DAB481-B063-41B2-B24A-1494A921EAEB}" name="* Operator" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{54F9D078-03BF-402A-B930-17147DDDD7D9}" name="* Constant _x000a_(alpha)" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{B9E81CB2-8430-4016-B547-F22CDDD9536C}" name="Multiplier _x000a_(beta)" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{50DAB481-B063-41B2-B24A-1494A921EAEB}" name="* Operator" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{54F9D078-03BF-402A-B930-17147DDDD7D9}" name="* Constant _x000a_(alpha)" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{B9E81CB2-8430-4016-B547-F22CDDD9536C}" name="Multiplier _x000a_(beta)" dataDxfId="68"/>
     <tableColumn id="7" xr3:uid="{526BD816-95C1-426E-A6E9-D4347E409275}" name="Risk factor 3"/>
     <tableColumn id="8" xr3:uid="{13A2F439-7898-451E-BCF6-644584C72A04}" name="Risk factor 4 _x000a_(applicable for corr)"/>
-    <tableColumn id="9" xr3:uid="{4CD0D2AA-C7D4-4498-9AE1-8265358D2605}" name="Preview" dataDxfId="44">
+    <tableColumn id="9" xr3:uid="{4CD0D2AA-C7D4-4498-9AE1-8265358D2605}" name="Preview" dataDxfId="67">
       <calculatedColumnFormula>IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</calculatedColumnFormula>
@@ -1215,18 +1443,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B7880FB-31EA-4B93-84AD-6D7E4C44F76D}" name="Table13" displayName="Table13" ref="A1:I2" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B7880FB-31EA-4B93-84AD-6D7E4C44F76D}" name="Table13" displayName="Table13" ref="A1:I2" totalsRowShown="0" headerRowDxfId="60">
   <autoFilter ref="A1:I2" xr:uid="{7B7880FB-31EA-4B93-84AD-6D7E4C44F76D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A2059CB0-1CAA-42E3-9410-47385E698ECE}" name="* View on"/>
     <tableColumn id="2" xr3:uid="{1EA1F8D6-7937-4B39-9BD5-FDD5381E0270}" name="* Risk factor 1"/>
     <tableColumn id="3" xr3:uid="{F40F41AC-6FEE-4819-AF39-41F09156EBC5}" name="Risk factor 2 _x000a_(applicable for corr)"/>
-    <tableColumn id="4" xr3:uid="{826843B9-67BB-4D82-80E6-0E4F53689B62}" name="* Operator" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{3D9C8D76-A909-4333-BED9-8DB266FFF2A9}" name="* Constant _x000a_(alpha)" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{1171C841-0B5E-4228-8D5A-CC7E47A2B386}" name="Multiplier _x000a_(beta)" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{826843B9-67BB-4D82-80E6-0E4F53689B62}" name="* Operator" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{3D9C8D76-A909-4333-BED9-8DB266FFF2A9}" name="* Constant _x000a_(alpha)" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{1171C841-0B5E-4228-8D5A-CC7E47A2B386}" name="Multiplier _x000a_(beta)" dataDxfId="57"/>
     <tableColumn id="7" xr3:uid="{1D7CECB1-8E34-4B3D-88E2-5CB789E3E08D}" name="Risk factor 3"/>
     <tableColumn id="8" xr3:uid="{92F2F500-100C-4E04-A39F-AD4F562621B7}" name="Risk factor 4 _x000a_(applicable for corr)"/>
-    <tableColumn id="9" xr3:uid="{31BF1798-9A44-4AA7-8AF1-A2047E438601}" name="Preview" dataDxfId="33">
+    <tableColumn id="9" xr3:uid="{31BF1798-9A44-4AA7-8AF1-A2047E438601}" name="Preview" dataDxfId="56">
       <calculatedColumnFormula>IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</calculatedColumnFormula>
@@ -1237,18 +1465,18 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A15404A4-3D1D-4914-A0F2-EED9EEB2FD6E}" name="Table138" displayName="Table138" ref="A1:I2" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A15404A4-3D1D-4914-A0F2-EED9EEB2FD6E}" name="Table138" displayName="Table138" ref="A1:I2" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="A1:I2" xr:uid="{7B7880FB-31EA-4B93-84AD-6D7E4C44F76D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2AE6BA37-0109-4FD1-B6D4-335798CE8526}" name="* View on"/>
     <tableColumn id="2" xr3:uid="{F262ED30-EAAC-4698-8BFC-EB851C815288}" name="* Risk factor 1"/>
     <tableColumn id="3" xr3:uid="{4CE74C56-2720-4A2A-86A4-0ED8457C96D8}" name="Risk factor 2 _x000a_(applicable for corr)"/>
-    <tableColumn id="4" xr3:uid="{D7C1145A-D2E9-4DCA-8C82-2C44B3C2DECA}" name="* Operator" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{99C081C0-8591-41BE-B62A-4AC72E0C4C68}" name="* Constant _x000a_(alpha)" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{D71867BB-3CC1-4C4E-9A12-5AC4ABF60623}" name="Multiplier _x000a_(beta)" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{D7C1145A-D2E9-4DCA-8C82-2C44B3C2DECA}" name="* Operator" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{99C081C0-8591-41BE-B62A-4AC72E0C4C68}" name="* Constant _x000a_(alpha)" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{D71867BB-3CC1-4C4E-9A12-5AC4ABF60623}" name="Multiplier _x000a_(beta)" dataDxfId="46"/>
     <tableColumn id="7" xr3:uid="{8B696389-ED4F-40E3-B525-45329DB703B2}" name="Risk factor 3"/>
     <tableColumn id="8" xr3:uid="{87335B59-3DAC-487A-8457-39F1F8800E20}" name="Risk factor 4 _x000a_(applicable for corr)"/>
-    <tableColumn id="9" xr3:uid="{7CE282A1-8DDF-431D-9FE6-918E76466A0C}" name="Preview" dataDxfId="22">
+    <tableColumn id="9" xr3:uid="{7CE282A1-8DDF-431D-9FE6-918E76466A0C}" name="Preview" dataDxfId="45">
       <calculatedColumnFormula>IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</calculatedColumnFormula>
@@ -1259,18 +1487,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{498A2D92-B90E-4F54-BF7E-927D6C418E2C}" name="Table13811" displayName="Table13811" ref="A1:I2" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{498A2D92-B90E-4F54-BF7E-927D6C418E2C}" name="Table13811" displayName="Table13811" ref="A1:I2" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="A1:I2" xr:uid="{7B7880FB-31EA-4B93-84AD-6D7E4C44F76D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{38E2C723-2F3E-475F-A0E5-9F6202BDF21E}" name="* View on"/>
     <tableColumn id="2" xr3:uid="{3EBBB323-3450-47CE-8379-8FC17E177359}" name="* Risk factor 1"/>
     <tableColumn id="3" xr3:uid="{B381DFA4-BE74-49C2-8234-9DE08538338B}" name="Risk factor 2 _x000a_(applicable for corr)"/>
-    <tableColumn id="4" xr3:uid="{740FEF54-C3FB-47B8-A687-057245A61AFD}" name="* Operator" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{7189C517-0CBF-4830-A487-A935DD2517F6}" name="* Constant _x000a_(alpha)" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{7D89CDBA-DA8A-4080-9B9D-57190898F036}" name="Multiplier _x000a_(beta)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{740FEF54-C3FB-47B8-A687-057245A61AFD}" name="* Operator" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{7189C517-0CBF-4830-A487-A935DD2517F6}" name="* Constant _x000a_(alpha)" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{7D89CDBA-DA8A-4080-9B9D-57190898F036}" name="Multiplier _x000a_(beta)" dataDxfId="35"/>
     <tableColumn id="7" xr3:uid="{1D5733C5-1973-46C3-9B3B-1D50C5752E9D}" name="Risk factor 3"/>
     <tableColumn id="8" xr3:uid="{A01D86A1-5870-4E6D-9FFB-F6639E4DEAE3}" name="Risk factor 4 _x000a_(applicable for corr)"/>
-    <tableColumn id="9" xr3:uid="{0D889F7D-FDBE-464E-A7B0-1C1372633BE9}" name="Preview" dataDxfId="11">
+    <tableColumn id="9" xr3:uid="{0D889F7D-FDBE-464E-A7B0-1C1372633BE9}" name="Preview" dataDxfId="34">
       <calculatedColumnFormula>IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</calculatedColumnFormula>
@@ -1281,21 +1509,43 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A18AE279-33E4-4AE6-A883-AFEED4BF1413}" name="Table1381112" displayName="Table1381112" ref="A1:I2" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A18AE279-33E4-4AE6-A883-AFEED4BF1413}" name="Table1381112" displayName="Table1381112" ref="A1:I2" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:I2" xr:uid="{7B7880FB-31EA-4B93-84AD-6D7E4C44F76D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{82B451EA-EAE1-46E8-98B3-96097277DF0D}" name="* View on"/>
     <tableColumn id="2" xr3:uid="{CA721A46-37E4-4219-96F6-D76FC6331ECC}" name="* Risk factor 1"/>
     <tableColumn id="3" xr3:uid="{2B5ED377-7063-4750-8C88-5A8356CD1404}" name="Risk factor 2 _x000a_(applicable for corr)"/>
-    <tableColumn id="4" xr3:uid="{82B3FBFF-D212-47DD-99F6-84D7882DC645}" name="* Operator" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{12D3E2EF-7780-442A-97F3-A9F8EB221291}" name="* Constant _x000a_(alpha)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{A71389CF-805A-49D8-9255-93E53A1F0A0E}" name="Multiplier _x000a_(beta)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{82B3FBFF-D212-47DD-99F6-84D7882DC645}" name="* Operator" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{12D3E2EF-7780-442A-97F3-A9F8EB221291}" name="* Constant _x000a_(alpha)" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{A71389CF-805A-49D8-9255-93E53A1F0A0E}" name="Multiplier _x000a_(beta)" dataDxfId="24"/>
     <tableColumn id="7" xr3:uid="{0B6BCE2E-0826-417B-A44F-3112DB8C6E4A}" name="Risk factor 3"/>
     <tableColumn id="8" xr3:uid="{6C78A647-A891-48D3-975A-4B999279CAAC}" name="Risk factor 4 _x000a_(applicable for corr)"/>
-    <tableColumn id="9" xr3:uid="{933A2B64-E76F-42F1-A290-41F51E58E337}" name="Preview" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{933A2B64-E76F-42F1-A290-41F51E58E337}" name="Preview" dataDxfId="23">
       <calculatedColumnFormula>IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1E0CE1CD-A398-47AC-8ABB-028DF673EA62}" name="Table13811124" displayName="Table13811124" ref="A1:I4" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:I4" xr:uid="{7B7880FB-31EA-4B93-84AD-6D7E4C44F76D}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{63F970EE-4E8E-4A29-9933-387807E83F6C}" name="* View on"/>
+    <tableColumn id="2" xr3:uid="{4B7DFFC1-33F7-4920-917C-C36B7C100823}" name="* Risk factor 1"/>
+    <tableColumn id="3" xr3:uid="{1DF02361-F8FA-4BE7-ADD1-ABCBC7EF9D73}" name="Risk factor 2 _x000a_(applicable for corr)"/>
+    <tableColumn id="4" xr3:uid="{9500515D-D1F3-492A-A482-AC58C1B913B6}" name="* Operator" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{04A54AD4-0FD2-484E-9F63-D156F5035A8B}" name="* Constant _x000a_(alpha)" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{5F8DD8CC-6003-46E3-B247-F48B51478F0A}" name="Multiplier _x000a_(beta)" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{4C7D41CD-AD14-4D60-A2A5-8E83E56BABF5}" name="Risk factor 3"/>
+    <tableColumn id="8" xr3:uid="{A91D62D4-B266-49DD-B2A7-4159DB307C1B}" name="Risk factor 4 _x000a_(applicable for corr)"/>
+    <tableColumn id="9" xr3:uid="{C0CADC5A-948B-4741-8CE4-2504382C7D7A}" name="Preview" dataDxfId="12">
+      <calculatedColumnFormula>IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(#REF!="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;#REF!&amp;" (p.a.)"),"")
+&amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(#REF!="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;#REF!&amp;" (p.a.)"),"")
+&amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;G2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(#REF!="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;#REF!&amp;", "&amp;H2&amp;")"),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1604,7 +1854,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C25" sqref="C25"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1663,7 +1913,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -1678,7 +1928,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_Germany 10-Year Government Bond Yield (p.a.) &gt; 0,025 </v>
+        <v xml:space="preserve">μ_Germany 10-Year Government Bond Yield (p.a.) &gt; 2,5 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1697,35 +1947,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="93" priority="22">
+    <cfRule type="expression" dxfId="116" priority="22">
       <formula>AND($A2="vol",C2&lt;&gt;"-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="23">
+    <cfRule type="expression" dxfId="115" priority="23">
       <formula>AND($A2="corr",C2="-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="34">
+    <cfRule type="expression" dxfId="114" priority="34">
       <formula>AND($A2="mean",C2&lt;&gt;"-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="expression" dxfId="90" priority="16">
+    <cfRule type="expression" dxfId="113" priority="16">
       <formula>AND($A2="corr",E2&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="17">
+    <cfRule type="expression" dxfId="112" priority="17">
       <formula>AND($A2="vol",E2&lt;=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="19">
+    <cfRule type="expression" dxfId="111" priority="19">
       <formula>AND($A2="corr",E2&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="87" priority="13">
+    <cfRule type="expression" dxfId="110" priority="13">
       <formula>AND($A2="vol",H2&lt;&gt;"-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="14">
+    <cfRule type="expression" dxfId="109" priority="14">
       <formula>AND($A2="corr",H2="-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="15">
+    <cfRule type="expression" dxfId="108" priority="15">
       <formula>AND($A2="mean",H2&lt;&gt;"-")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1748,6 +1998,232 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEABC6F7-BCA1-46E3-8462-01F3C233635C}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1758,7 +2234,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C25" sqref="C25"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1817,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="10">
-        <v>-2.5000000000000001E-2</v>
+        <v>-2.5</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -1832,7 +2308,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_EUR Government Bonds (p.a.) &lt; -0,025 </v>
+        <v xml:space="preserve">μ_EUR Government Bonds (p.a.) &lt; -2,5 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1851,35 +2327,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="79" priority="7">
+    <cfRule type="expression" dxfId="102" priority="7">
       <formula>AND($A2="vol",C2&lt;&gt;"-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="8">
+    <cfRule type="expression" dxfId="101" priority="8">
       <formula>AND($A2="corr",C2="-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="9">
+    <cfRule type="expression" dxfId="100" priority="9">
       <formula>AND($A2="mean",C2&lt;&gt;"-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="expression" dxfId="76" priority="4">
+    <cfRule type="expression" dxfId="99" priority="4">
       <formula>AND($A2="corr",E2&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="5">
+    <cfRule type="expression" dxfId="98" priority="5">
       <formula>AND($A2="vol",E2&lt;=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="6">
+    <cfRule type="expression" dxfId="97" priority="6">
       <formula>AND($A2="corr",E2&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="73" priority="1">
+    <cfRule type="expression" dxfId="96" priority="1">
       <formula>AND($A2="vol",H2&lt;&gt;"-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="2">
+    <cfRule type="expression" dxfId="95" priority="2">
       <formula>AND($A2="corr",H2="-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="3">
+    <cfRule type="expression" dxfId="94" priority="3">
       <formula>AND($A2="mean",H2&lt;&gt;"-")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1969,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="10">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -1984,7 +2460,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_Global Equities (p.a.) &gt; 0,01 </v>
+        <v xml:space="preserve">μ_Global Equities (p.a.) &gt; 1 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2003,24 +2479,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2 H2">
-    <cfRule type="expression" dxfId="65" priority="4">
+    <cfRule type="expression" dxfId="88" priority="4">
       <formula>AND($A2="vol",C2&lt;&gt;"-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="87" priority="5">
       <formula>AND($A2="corr",C2="-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="6">
+    <cfRule type="expression" dxfId="86" priority="6">
       <formula>AND($A2="mean",C2&lt;&gt;"-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="85" priority="1">
       <formula>AND($A2="corr",E2&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="84" priority="2">
       <formula>AND($A2="vol",E2&lt;=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="3">
+    <cfRule type="expression" dxfId="83" priority="3">
       <formula>AND($A2="corr",E2&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2109,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="10">
-        <v>-0.01</v>
+        <v>-1</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -2124,7 +2600,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_Global Equities (p.a.) &lt; -0,01 </v>
+        <v xml:space="preserve">μ_Global Equities (p.a.) &lt; -1 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2143,24 +2619,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2 H2">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="77" priority="4">
       <formula>AND($A2="vol",C2&lt;&gt;"-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="5">
+    <cfRule type="expression" dxfId="76" priority="5">
       <formula>AND($A2="corr",C2="-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="6">
+    <cfRule type="expression" dxfId="75" priority="6">
       <formula>AND($A2="mean",C2&lt;&gt;"-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="74" priority="1">
       <formula>AND($A2="corr",E2&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="73" priority="2">
       <formula>AND($A2="vol",E2&lt;=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="3">
+    <cfRule type="expression" dxfId="72" priority="3">
       <formula>AND($A2="corr",E2&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2249,7 +2725,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="10">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -2264,7 +2740,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_Eurozone Core Inflation (p.a.) &gt; 0,001 </v>
+        <v xml:space="preserve">μ_Eurozone Core Inflation (p.a.) &gt; 0,1 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2283,24 +2759,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2 H2">
-    <cfRule type="expression" dxfId="43" priority="13">
+    <cfRule type="expression" dxfId="66" priority="13">
       <formula>AND($A2="vol",C2&lt;&gt;"-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="14">
+    <cfRule type="expression" dxfId="65" priority="14">
       <formula>AND($A2="corr",C2="-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="16">
+    <cfRule type="expression" dxfId="64" priority="16">
       <formula>AND($A2="mean",C2&lt;&gt;"-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="expression" dxfId="40" priority="10">
+    <cfRule type="expression" dxfId="63" priority="10">
       <formula>AND($A2="corr",E2&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="11">
+    <cfRule type="expression" dxfId="62" priority="11">
       <formula>AND($A2="vol",E2&lt;=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="12">
+    <cfRule type="expression" dxfId="61" priority="12">
       <formula>AND($A2="corr",E2&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2330,7 +2806,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2389,7 +2865,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="10">
-        <v>-1E-3</v>
+        <v>-0.1</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -2404,7 +2880,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_Eurozone Core Inflation (p.a.) &lt; -0,001 </v>
+        <v xml:space="preserve">μ_Eurozone Core Inflation (p.a.) &lt; -0,1 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2423,24 +2899,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2 H2">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="55" priority="4">
       <formula>AND($A2="vol",C2&lt;&gt;"-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="54" priority="5">
       <formula>AND($A2="corr",C2="-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="expression" dxfId="53" priority="6">
       <formula>AND($A2="mean",C2&lt;&gt;"-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="52" priority="1">
       <formula>AND($A2="corr",E2&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>AND($A2="vol",E2&lt;=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="50" priority="3">
       <formula>AND($A2="corr",E2&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2470,7 +2946,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2529,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="10">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -2544,7 +3020,7 @@
         <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
 &amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_iVol US Equities (p.a.) &gt; 0,01 </v>
+        <v xml:space="preserve">μ_iVol US Equities (p.a.) &gt; 1 </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2563,24 +3039,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2 H2">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>AND($A2="vol",C2&lt;&gt;"-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>AND($A2="corr",C2="-")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>AND($A2="mean",C2&lt;&gt;"-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>AND($A2="corr",E2&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>AND($A2="vol",E2&lt;=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>AND($A2="corr",E2&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2607,6 +3083,146 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6705A1-063F-4EAE-B086-A9A750C92524}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
+&amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
+&amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
+        <v xml:space="preserve">μ_iVol US Equities (p.a.) &lt; -1 </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2 H2">
+    <cfRule type="expression" dxfId="33" priority="4">
+      <formula>AND($A2="vol",C2&lt;&gt;"-")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="5">
+      <formula>AND($A2="corr",C2="-")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="6">
+      <formula>AND($A2="mean",C2&lt;&gt;"-")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="expression" dxfId="30" priority="1">
+      <formula>AND($A2="corr",E2&gt;1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="2">
+      <formula>AND($A2="vol",E2&lt;=0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="3">
+      <formula>AND($A2="corr",E2&lt;-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{3B011D67-1CD7-4B8E-B93C-D2E074A1968C}">
+      <formula1>type</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{F74B9DAF-45E5-45EA-9519-39AB13DAA477}">
+      <formula1>factor</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 G2:H2" xr:uid="{95D0D278-5368-4E32-8EEA-F957E5E2211A}">
+      <formula1>factor_2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{EE69D6AF-1B1D-4302-9B87-CAD27290C892}">
+      <formula1>operator</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538CC652-525E-49E3-8026-1DDAE0E610F1}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2657,43 +3273,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" s="10">
-        <v>-0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2" si="0">IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;G2&amp;" (p.a.)"),"")
-&amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;G2&amp;" (p.a.)"),"")
-&amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;C2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(G2="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;G2&amp;", "&amp;H2&amp;")"),"")</f>
-        <v xml:space="preserve">μ_iVol US Equities (p.a.) &lt; -0,01 </v>
+      <c r="I2" t="e">
+        <f>IF(A2="mean","μ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(#REF!="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"μ_"&amp;#REF!&amp;" (p.a.)"),"")
+&amp;IF(A2="vol","σ_"&amp;B2&amp;" (p.a.) "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(#REF!="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"σ_"&amp;#REF!&amp;" (p.a.)"),"")
+&amp;IF(A2="corr","ρ("&amp;B2&amp;", "&amp;G2&amp;") "&amp;D2&amp;" "&amp;IF(E2=0,"",E2&amp;" ")&amp;IF(OR(#REF!="-",F2=0),"",IF(E2=0,"","+")&amp;" "&amp;IF(F2=1,"",F2)&amp;"ρ("&amp;#REF!&amp;", "&amp;H2&amp;")"),"")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D3" s="2"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="2"/>
+      <c r="B4" s="12"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="15"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
@@ -2702,271 +3323,46 @@
       <c r="D6" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2 H2">
-    <cfRule type="expression" dxfId="10" priority="4">
-      <formula>AND($A2="vol",C2&lt;&gt;"-")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>AND($A2="corr",C2="-")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
-      <formula>AND($A2="mean",C2&lt;&gt;"-")</formula>
+  <conditionalFormatting sqref="H2:H4">
+    <cfRule type="expression" dxfId="22" priority="4">
+      <formula>AND($A2="vol",H2&lt;&gt;"-")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="5">
+      <formula>AND($A2="corr",H2="-")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="6">
+      <formula>AND($A2="mean",H2&lt;&gt;"-")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>AND($A2="corr",E2&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND($A2="vol",E2&lt;=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>AND($A2="corr",E2&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{3B011D67-1CD7-4B8E-B93C-D2E074A1968C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{B45515F3-196C-4A1F-B379-38F453DE4604}">
+      <formula1>operator</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{C9D9142D-0A21-47B8-A3DB-5DACCF48E4BD}">
+      <formula1>factor_2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{0C0405A7-1849-4CAE-A06E-539C119CFCC3}">
       <formula1>type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{F74B9DAF-45E5-45EA-9519-39AB13DAA477}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{993ECA4A-279A-49EF-A434-B143F63B75C5}">
       <formula1>factor</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 G2:H2" xr:uid="{95D0D278-5368-4E32-8EEA-F957E5E2211A}">
-      <formula1>factor_2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{EE69D6AF-1B1D-4302-9B87-CAD27290C892}">
-      <formula1>operator</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEABC6F7-BCA1-46E3-8462-01F3C233635C}">
-  <dimension ref="A1:E37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>